--- a/03_Mapping/Vehicle_Type_Mapping.xlsx
+++ b/03_Mapping/Vehicle_Type_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/03_Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCBB1EC9-9241-4A5D-A294-81815A0FD601}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A88ABC-D9C6-4674-865A-E1605C90D3E7}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>PKW (S)</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Fahrräder</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>MQ 6.1</t>
+  </si>
+  <si>
+    <t>MQ 5.1</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +714,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03_Mapping/Vehicle_Type_Mapping.xlsx
+++ b/03_Mapping/Vehicle_Type_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/03_Mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Laptop/Towards-Sustainable-Cities-through-Simulation/03_Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A88ABC-D9C6-4674-865A-E1605C90D3E7}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_AD4DB114E441178AC67DF4B50ED1E6EA693EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C1709D7-0356-47B3-96F7-06336599BEF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>PKW (S)</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>MQ 5.1</t>
+  </si>
+  <si>
+    <t>MQ 1.1</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,19 +489,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -506,7 +509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -514,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -522,7 +525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -530,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -538,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -546,7 +549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -554,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -562,7 +565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -570,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -578,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -586,7 +589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -594,7 +597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -602,7 +605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -610,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -618,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -626,7 +629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -634,7 +637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -642,7 +645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -650,7 +653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -658,7 +661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -666,7 +669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -674,7 +677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -682,7 +685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -690,7 +693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -698,7 +701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -706,7 +709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -714,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -722,11 +725,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
     </row>
